--- a/excels/Word_Sense_Extraction.xlsx
+++ b/excels/Word_Sense_Extraction.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehdi.mirzapour/Dropbox/PractiKPharma/Lexicons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehdi.mirzapour/Dropbox/PractiKPharma/PractiKPharma_Code/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11358" uniqueCount="3985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11357" uniqueCount="3984">
   <si>
     <t>French Expression</t>
   </si>
@@ -11971,9 +11971,6 @@
   </si>
   <si>
     <t>French_WordNet</t>
-  </si>
-  <si>
-    <t>JDM(Final)</t>
   </si>
   <si>
     <t>Cnrtl</t>
@@ -12006,18 +12003,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -12047,7 +12038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12055,10 +12046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12362,7 +12350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -12371,107 +12359,104 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="2" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3977</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3978</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3979</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3980</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3981</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3980</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3982</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3983</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>3984</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3369</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3371</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3372</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3373</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3374</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3376</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3377</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>600</v>
       </c>
